--- a/moneos_2020_test/tabellen/020_Overzicht_tabellen.xlsx
+++ b/moneos_2020_test/tabellen/020_Overzicht_tabellen.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="ontwikkelingsprojecten" sheetId="1" r:id="rId1"/>
+    <sheet name="natuurontwikkelingsprojecten" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
